--- a/Descargas/R15_Juzgado De Familia De Pudahuel_Terminos Por Rol_2020-Noviembre.xlsx
+++ b/Descargas/R15_Juzgado De Familia De Pudahuel_Terminos Por Rol_2020-Noviembre.xlsx
@@ -251,7 +251,7 @@
         </is>
       </c>
       <c r="B5" s="65">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
